--- a/MicrobiomeCF/DB and Documents/MicrobiomCF.xlsx
+++ b/MicrobiomeCF/DB and Documents/MicrobiomCF.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="358">
   <si>
     <t>Qdesceng</t>
   </si>
@@ -1114,6 +1114,12 @@
   </si>
   <si>
     <t>Select Antibiotic serial</t>
+  </si>
+  <si>
+    <t>tblAntibiotic</t>
+  </si>
+  <si>
+    <t>antibioserial</t>
   </si>
 </sst>
 </file>
@@ -2678,8 +2684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1"/>
@@ -4653,9 +4659,8 @@
         <v>170</v>
       </c>
       <c r="G45" s="10"/>
-      <c r="H45" s="1" t="str">
-        <f>B47</f>
-        <v>q27</v>
+      <c r="H45" s="22" t="s">
+        <v>354</v>
       </c>
       <c r="I45" s="1"/>
       <c r="L45" s="3"/>
@@ -4675,7 +4680,7 @@
       </c>
       <c r="U45" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('44', 'q26','FrmNumeric', 'tblMainques','','26. ASK: Can you tell us how many times in the last 1 month this child has used antibiotics that you didn’t already tell us about? (Never:88, Dont know:99)               ','','q27','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('44', 'q26','FrmNumeric', 'tblMainques','','26. ASK: Can you tell us how many times in the last 1 month this child has used antibiotics that you didn’t already tell us about? (Never:88, Dont know:99)               ','','antibioSerial','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
       <c r="V45" s="10"/>
     </row>
@@ -4684,7 +4689,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C46" s="44" t="s">
         <v>326</v>
@@ -4697,9 +4702,8 @@
         <v>355</v>
       </c>
       <c r="G46" s="10"/>
-      <c r="H46" s="1" t="str">
-        <f>B48</f>
-        <v>q27other</v>
+      <c r="H46" s="22" t="s">
+        <v>77</v>
       </c>
       <c r="I46" s="1"/>
       <c r="L46" s="3"/>
@@ -4719,7 +4723,7 @@
       </c>
       <c r="U46" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('45', 'antibioSerial','FrmComboBox', 'tblMainques','','Select Antibiotic serial','','q27other','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('45', 'antibioserial','FrmComboBox', 'tblMainques','','Select Antibiotic serial','','q27','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
       <c r="V46" s="10"/>
     </row>
@@ -4734,7 +4738,7 @@
         <v>81</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>23</v>
+        <v>356</v>
       </c>
       <c r="E47" s="29"/>
       <c r="F47" s="24" t="s">
@@ -4763,7 +4767,7 @@
       </c>
       <c r="U47" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('46', 'q27','frmsinglechoice', 'tblMainques','','27.  ASK: Please try and recall the name of each antibiotic this child used in the last 1 month(30 days before collection date)','','q28','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('46', 'q27','frmsinglechoice', 'tblAntibiotic','','27.  ASK: Please try and recall the name of each antibiotic this child used in the last 1 month(30 days before collection date)','','q28','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
       <c r="V47" s="10"/>
     </row>
@@ -4778,7 +4782,7 @@
         <v>22</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>23</v>
+        <v>356</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="33" t="s">
@@ -4806,7 +4810,7 @@
       </c>
       <c r="U48" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('47', 'q27other','FrmText', 'tblMainques','','27. Other: specify','','q28','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('47', 'q27other','FrmText', 'tblAntibiotic','','27. Other: specify','','q28','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
       <c r="V48" s="10"/>
     </row>
@@ -4821,7 +4825,7 @@
         <v>137</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>23</v>
+        <v>356</v>
       </c>
       <c r="E49" s="30"/>
       <c r="F49" s="24" t="s">
@@ -4850,7 +4854,7 @@
       </c>
       <c r="U49" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('48', 'q28','FrmNumeric', 'tblMainques','','28. Ask:How many total days did this child use this antibiotic?(Dont know:99) ','','q29','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('48', 'q28','FrmNumeric', 'tblAntibiotic','','28. Ask:How many total days did this child use this antibiotic?(Dont know:99) ','','q29','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
       <c r="V49" s="10"/>
     </row>
@@ -5718,8 +5722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G187"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="B181" sqref="B181:B184"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
